--- a/data/chap7/7.2.xlsx
+++ b/data/chap7/7.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolders\桌面\free-excel-main\data\chap7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\free-excel\data\chap7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8163B105-4CEF-4DB1-A1A0-82A0D0FE0F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF6A9A3-1184-4775-AE43-978BC6BA0F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="828" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5790" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="案例1" sheetId="98" r:id="rId1"/>
@@ -435,7 +435,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,9 +456,6 @@
     <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,9 +467,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,72 +570,6 @@
     </tableStyle>
   </tableStyles>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFE96137"/>
       <color rgb="FF00A4DC"/>
@@ -672,7 +600,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -867,19 +795,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B0735-29D7-4A77-B9BB-4DE3B777426B}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="6.08984375" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1">
+    <row r="1" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -902,7 +830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1">
+    <row r="2" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -925,7 +853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1">
+    <row r="3" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -948,7 +876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1">
+    <row r="4" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -971,7 +899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1">
+    <row r="5" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -994,7 +922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1">
+    <row r="6" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -1017,7 +945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1">
+    <row r="7" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1040,7 +968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1">
+    <row r="8" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1063,7 +991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1">
+    <row r="9" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1086,7 +1014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1">
+    <row r="10" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1109,7 +1037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1">
+    <row r="11" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -1132,7 +1060,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1">
+    <row r="12" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1153,6 +1081,10 @@
       </c>
       <c r="G12" s="3">
         <v>57</v>
+      </c>
+      <c r="I12">
+        <f>SUMIF(C1:C12,"&gt;80",C1:C12)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1163,18 +1095,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4A6FAB-B7B9-4B7F-B2FD-9AADB9C5BC16}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1">
+    <row r="1" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1185,7 +1119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1">
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -1196,7 +1130,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1">
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1207,7 +1141,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1">
+    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1218,7 +1152,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1">
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -1229,7 +1163,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1">
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -1240,7 +1174,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1">
+    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1251,7 +1185,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.95" customHeight="1">
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1262,7 +1196,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1">
+    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1273,7 +1207,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1">
+    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1284,7 +1218,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1">
+    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
@@ -1295,7 +1229,7 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.95" customHeight="1">
+    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1304,6 +1238,16 @@
       </c>
       <c r="C12" s="3">
         <v>2931</v>
+      </c>
+      <c r="E12">
+        <f>SUMIF(B2:B12,"*苹果*",C2:C12)</f>
+        <v>7252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="E13">
+        <f>SUMIF(B2:B12,"*手机*",C2:C12)</f>
+        <v>20667</v>
       </c>
     </row>
   </sheetData>
@@ -1320,14 +1264,14 @@
       <selection activeCell="A3" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" customWidth="1"/>
+    <col min="1" max="7" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.95" customHeight="1">
+    <row r="1" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1346,7 +1290,7 @@
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="19.95" customHeight="1">
+    <row r="2" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1375,8 +1319,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="6">
@@ -1397,7 +1341,7 @@
       <c r="G3" s="6">
         <v>8169</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <f>SUMIF($B$2:$G$2,I$2,B3:G3)</f>
         <v>16844</v>
       </c>
@@ -1405,17 +1349,17 @@
         <f>SUMIF($B$2:$G$2,H$2,B3:G3)</f>
         <v>9000</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <f>C3</f>
         <v>1157</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <f>$C$3</f>
         <v>1157</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="6">
@@ -1436,7 +1380,7 @@
       <c r="G4" s="6">
         <v>7628</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <f t="shared" ref="H4:H14" si="0">SUMIF($B$2:$G$2,I$2,B4:G4)</f>
         <v>24655</v>
       </c>
@@ -1444,17 +1388,17 @@
         <f t="shared" ref="I4:I14" si="1">SUMIF($B$2:$G$2,H$2,B4:G4)</f>
         <v>9000</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <f t="shared" ref="J4:J14" si="2">C4</f>
         <v>7235</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <f t="shared" ref="K4:K14" si="3">$C$3</f>
         <v>1157</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="6">
@@ -1475,7 +1419,7 @@
       <c r="G5" s="6">
         <v>8134</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>15317</v>
       </c>
@@ -1483,17 +1427,17 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f t="shared" si="2"/>
         <v>5888</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <f t="shared" si="3"/>
         <v>1157</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="6">
@@ -1514,7 +1458,7 @@
       <c r="G6" s="6">
         <v>2597</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>18203</v>
       </c>
@@ -1522,17 +1466,17 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <f t="shared" si="2"/>
         <v>9076</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <f t="shared" si="3"/>
         <v>1157</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="6">
@@ -1553,7 +1497,7 @@
       <c r="G7" s="6">
         <v>6271</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>25836</v>
       </c>
@@ -1561,17 +1505,17 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <f t="shared" si="2"/>
         <v>9841</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <f t="shared" si="3"/>
         <v>1157</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="6">
@@ -1592,7 +1536,7 @@
       <c r="G8" s="6">
         <v>8659</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>15172</v>
       </c>
@@ -1600,17 +1544,17 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <f t="shared" si="2"/>
         <v>3126</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <f t="shared" si="3"/>
         <v>1157</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="6">
@@ -1631,7 +1575,7 @@
       <c r="G9" s="6">
         <v>7223</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>20208</v>
       </c>
@@ -1639,17 +1583,17 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <f t="shared" si="2"/>
         <v>4852</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <f t="shared" si="3"/>
         <v>1157</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="6">
@@ -1670,7 +1614,7 @@
       <c r="G10" s="6">
         <v>2365</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>15491</v>
       </c>
@@ -1678,17 +1622,17 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <f t="shared" si="2"/>
         <v>8411</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <f t="shared" si="3"/>
         <v>1157</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="6">
@@ -1709,7 +1653,7 @@
       <c r="G11" s="6">
         <v>5196</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>21474</v>
       </c>
@@ -1717,17 +1661,17 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <f t="shared" si="2"/>
         <v>6363</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <f t="shared" si="3"/>
         <v>1157</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="6">
@@ -1748,7 +1692,7 @@
       <c r="G12" s="6">
         <v>8589</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>20499</v>
       </c>
@@ -1756,17 +1700,17 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <f t="shared" si="2"/>
         <v>7603</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <f t="shared" si="3"/>
         <v>1157</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="6">
@@ -1787,7 +1731,7 @@
       <c r="G13" s="6">
         <v>9765</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>12429</v>
       </c>
@@ -1795,17 +1739,17 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <f t="shared" si="2"/>
         <v>1368</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <f t="shared" si="3"/>
         <v>1157</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="6">
@@ -1826,7 +1770,7 @@
       <c r="G14" s="6">
         <v>5788</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>20363</v>
       </c>
@@ -1834,11 +1778,11 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <f t="shared" si="2"/>
         <v>7950</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <f t="shared" si="3"/>
         <v>1157</v>
       </c>
@@ -1857,14 +1801,14 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="6.6328125" customWidth="1"/>
-    <col min="9" max="10" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.95" customHeight="1">
+    <row r="1" spans="1:9" ht="19.899999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1888,8 +1832,8 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="3">
@@ -1910,10 +1854,10 @@
       <c r="G2" s="3">
         <v>70</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="3">
@@ -1935,8 +1879,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3">
@@ -1958,8 +1902,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="3">
@@ -1981,8 +1925,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="3">
@@ -2004,8 +1948,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="3">
@@ -2027,8 +1971,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="3">
@@ -2050,8 +1994,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="3">
@@ -2073,8 +2017,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="3">
@@ -2096,8 +2040,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="3">
@@ -2119,8 +2063,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="3">
@@ -2142,8 +2086,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="3">
@@ -2175,59 +2119,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969951AB-A7AA-4E28-A4B9-F47BB34191BD}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.95" customHeight="1">
+    <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2237,452 +2181,453 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.95" customHeight="1">
+    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>9468</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>7979</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>6340</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>7774</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>5036</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>5707</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>5875</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>7724</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <v>8861</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <v>8926</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>7686</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>7424</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>7863</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>9771</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>9115</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>5827</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>7612</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>7360</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>7993</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>6912</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>5361</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>6495</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>9126</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>9972</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>9813</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>5350</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>5799</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>9452</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>6120</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>7325</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>9324</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>8472</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>9601</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>9733</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>6883</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>6348</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>8631</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>8746</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>8342</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>5704</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>8097</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>5090</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>6925</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>8408</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>8014</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>9388</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>7981</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>9609</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>9150</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>6791</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>5847</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>8328</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>7804</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>9948</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>8095</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>5438</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>5533</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>5902</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>6019</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>7631</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>6437</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>5396</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>6163</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>7910</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>8326</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>7530</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>9299</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>6065</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>9245</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>7239</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>9583</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>5904</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>9188</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>9180</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>8000</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>8421</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>7180</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>5225</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>6464</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>9854</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>6153</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>8878</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>7707</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>9744</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>7699</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>9925</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>5059</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>6383</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>5974</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>7405</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>8244</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>7919</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>6459</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>7686</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>5318</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>9219</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>8245</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>7205</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>5792</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>5386</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>9934</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>9816</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>8783</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>6834</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>8261</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>6088</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>5037</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>8802</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>8986</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>6337</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.95" customHeight="1">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>8935</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>9496</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>6171</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>7655</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>7711</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>8873</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>9148</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>7059</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>6577</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>6531</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>